--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/36_Hakkari_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/36_Hakkari_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B3988A-C8D1-4DA6-8EF3-54643CC262F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{585B105C-8966-4DD8-A4B6-D852AAAC97E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{9D2D9F77-ACB2-41C8-8702-96F092FC96B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{AA8544CF-3818-457B-AAE2-60EC8323030C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,13 +939,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8C23E420-267C-414A-A78D-5E51402B4CD1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A86870C5-4024-4AB4-ABCE-2AC1214084AD}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{2E77CEBE-71E4-474F-8A3F-8E27ED03E425}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{01D74321-9F20-4A05-8F41-49624A2E82E3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{5B9721C7-2E90-47BD-9266-DF11F2CCED68}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A1E3980E-3F1C-4B37-B543-A3231BB387B8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BEE58025-9D56-445D-9121-284036C7BF1D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1202B404-B788-40E1-99E2-FF4163EECEF9}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{52EADFA5-29E6-4DDC-8A91-387795C781A6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B08A01AC-AC9B-4324-BCCC-022CBB30C098}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0078C0DA-09E9-4759-A078-A170C509C8FC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C7DD064F-161A-407A-8D8E-C8A8689D6756}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{971A3DC9-7294-4A48-AFF6-D307363C3D08}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{42E78E1C-3442-471D-A107-1F5FD8F580FB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C60AEB4-3602-4575-BB30-77049551C754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5DB98D-53A6-453A-B36C-01C71BF854C7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2520,18 +2520,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7A67C78-0F18-4374-90E0-7142C145596A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20508B70-A81A-435C-BBA5-14D3A3E64F4A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7E0DD4D5-60E0-4193-AE75-C0CA666E7806}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25D3F2B0-4BCC-46D0-B7ED-ACF22B333AD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5139CE1-11DA-45E7-95B4-63ED268BFFD1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{63E97F7D-18C3-4175-95E9-F0751708E255}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A09C042-64FB-4DAF-83D4-869927EB7590}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4767CA49-013D-4EBA-9333-CC4D6E792799}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8979C44D-A95E-4B9C-9235-DCA9F660303C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62F4BF1E-C7CC-4B28-B15D-7E35DC1BC78F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8BE6C36-DD8B-4C20-B07F-6C2C7262CDBD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F329D76F-F0C1-478A-9EE0-EB7E6D332EED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF8FC8F6-1764-4E32-AC55-61BF17D6F4A1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F19165E6-D1B9-4A6C-BEBB-19C68F0E50A5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3971497-36B1-4567-8AE5-AACBEAC4388F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84E25D30-0786-4B2A-B984-FB161E7DF727}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6A7216A-6FDA-40B5-ACB8-5DB18FAE3425}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A9F3A61D-994F-4297-8845-15F9E863D16E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A7A86DD-D5BE-4A8F-AD4E-B14CCA1B4BB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0FCBD89-FC21-456A-804D-8D8E3A47D053}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04DBC355-42A9-422D-9083-3AF91D33D90E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{142B5C00-E6FF-45E0-8D09-9B5BDF73CEF5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2F09571-F8D8-43E0-BD1B-940D1A6C131A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DA4F0D9-A928-4AF4-9E44-BF435FDABB46}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2544,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564D0ABD-9A9A-4111-B2EC-1E9603307B4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144BCFED-CDB9-4456-B081-02DE2AAED704}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3740,18 +3740,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0ECA26A-D34A-42F4-9C57-73CE6D69208A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07C69309-A7BF-48D8-8118-B35738E82FF5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE98E731-D974-4791-AC54-B539D9F1A452}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2188807-8E71-4593-99ED-43FBF3F78EFA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{751307C0-D914-4BD8-ABD8-CD4DB6D1094C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D2B70545-5BFD-45DB-9DB8-3FDEF8EBAAC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{964E56E1-CEF9-4D8B-BD77-6537EF3E3239}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDADBB96-3925-47F6-BF63-69EA2B673260}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E05995AC-449C-4404-A945-74B340F87144}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{420E9450-5F28-45BE-871E-06B8C3C5E243}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A672D39-72D3-446D-BB9E-6E529F52B180}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81696494-8F1E-4878-A615-541885645A38}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{452B168D-AE21-43EE-A9F5-C20B38130ACE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50036130-09D1-49BA-B57B-884162E9F878}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CEDF06D4-C379-4797-8D16-3974110024B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8A817CE3-22D4-4882-81EA-37298E1EF5D5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23F35562-DCF1-4140-9B4D-4F0B060FD5CE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1C1A442A-761E-4A67-A9CE-0E31B9D92337}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{997B415E-DEE9-4DFB-AA3A-EC88FD597E6C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1242BED-3D38-4B8C-8CA8-50232EF4137F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42FCB752-79C8-4F03-82DC-C829B900D417}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E40A0523-FC50-4910-A2EA-9481E68B866F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{241A2EE0-6F1E-4CD2-9DEC-C3FF347290A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45962756-26BF-4A21-9F29-8A6C8735F1C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3764,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B1AE5A-703F-4AD5-8373-E308E52107F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEC7949-DDE5-429F-BF53-9CA3560C30A1}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4950,18 +4950,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{008DA1F1-33AF-4571-BD6D-569ECE5CA1C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEFC9652-C022-4741-9744-B3A46B9F3BD6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9AD23355-B45F-48CF-9331-5274001CCD99}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3679BD01-D0B1-481E-BDCB-33520B3081A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A193941A-9640-4CE9-86A9-744B86CB7FBF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{211223F9-E1E9-4220-B27B-172085C89457}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F2BEBF5-F849-465E-ACDA-EA43AC24A8D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C397A47D-8A58-42E0-B12A-4FB69FA33642}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46BE68AB-9BE2-4E13-B636-84871AD7CF75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28CF168A-F52F-49FC-B17A-7AD72254B495}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A3EEC38-63E9-4EC7-93FE-4F226F01F153}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{361AB202-1421-4D7D-BF33-EF830575E110}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{621F21AB-004F-47B6-8A4E-7E824BC7CB2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E72B2ED-9597-4584-95A8-70E37E6E065C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B8B38DAA-0E12-454D-A46B-E0D1B6BE37F7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A82657C1-E71A-47B7-8034-D8C3FBDB4BDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{105768B3-6A14-47FD-B308-C2B5B230573B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68E8BA20-C2C6-46F6-8B82-EA511DDEFA23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80175B98-ACEB-452F-8220-C27692BBDF4B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14F7C3D4-1DB2-492E-9921-B5C9D82D1FE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C906F5C0-0C33-4047-B967-FCB329EEEA2E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2670D0AC-D028-4667-87B2-A07ECEA9123A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{473D4A82-056E-49CD-B3A1-38ECF32CF9AF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B85F3ABC-9C54-4DD2-A743-5DB53CCA9BE7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4974,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C98C8FF-5F3B-4759-850A-6B3066C9EEF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C545FB81-9197-49C0-9591-DFC1D535D972}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6152,18 +6152,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E75CFF8-B74D-4E87-8F4E-3E99A4F57D95}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31C69FCB-FACC-4A47-B383-1A6FA9373DAD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2B65D45B-A6F1-4DB4-A7A7-DF1699ED9E27}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{661512C5-7277-4931-9D58-4B2DE9518F9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A661BA59-C908-413F-B5EB-A76E35E19D5F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9A33BE3-5553-4CE1-B6AF-DACE5F05FA50}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EEFDDAC-A452-4B7F-9D5D-E573C1D930D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B744B45F-4059-4FD3-B3C6-3A4410581106}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{172C11C0-6120-4FF1-9AEF-BC7F1AB75935}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10F796AE-7E06-4010-BD5A-EDAF12A9162B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F591692-CB45-4575-8DB3-2D85AC6B614E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BD7D0AA-4717-400E-85C9-AB249908473E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3ED2BCC-6E03-430D-9BFD-ADCB7A610878}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7104C44F-A488-47C7-B1EF-A40CEFE0B7F3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8CA8A5BF-FD24-4E41-A563-DD535D4CF948}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E0469AE5-20B8-4D9F-A9A9-D144317A85DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BBECFE9-F88D-4F56-AF1C-DED77F70F535}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AABB06C4-1C6C-44F6-A624-CBDB3FDA155D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26373955-55C5-4C47-BF8E-5240A22A05F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9648BE4E-E385-400A-8DAB-64839800C5B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81F78C02-9CE8-4E5F-8664-DCB7BB052377}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2BF5619-7AA1-4954-94A4-D959FD9EE947}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2903C4E1-5718-473B-8A05-7D0DD573915F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9272770-BF04-4DCE-90EB-A0B6F518D14F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6176,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DB6159-A44B-4004-A528-906235B93799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D5253F-E4EA-4714-BB2F-EB6F27D9B9EF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7383,18 +7383,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDAED1E4-09B2-48D2-87D0-518788D4B5B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F61F5C9C-37DC-49A3-8C27-5018C289E6D2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4660EE1-BA30-47FB-840E-B4F42F778995}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5CCFB84-D041-46A0-A48A-F31B5EE30447}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F939F95-9752-4B0D-AD8D-5F8187D45C81}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E7D4C2B9-61C4-41CB-8E90-E5F2FFB5DB87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A91682C9-1A3D-44E0-A669-3D03234CC155}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE538B58-5357-4738-A336-CB7B81E3DC41}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCA1FA07-3013-440D-98AD-1A6156ACB597}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04FCD4BE-A541-409B-8DED-AC1E953479E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71B6B99F-FC6B-4D65-A2B1-6DBE96235CBA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D59F9E9-CE3A-4E95-B015-6DADCEFB299B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB93B24B-12DD-4011-916B-E055C14FBB77}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2ECCA80D-EA3E-4412-8089-B0152117EA61}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{701C6F82-2DA8-40C4-8082-D81C49901261}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5BA94F8-9269-4AE4-A4B2-CF6BA85097AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BE89864-A246-4D2D-BCF6-F245CF42A4CC}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{712F1F94-6E0F-4C96-AD9E-F546DCC340F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15779A53-30BE-4778-A21E-6DC6DBE546AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{956121D4-F956-4CA4-9321-B5D95B4B7FF5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61C91476-A54C-4A39-A89D-FEA3AF460154}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EBB70D4D-39FD-4EAB-9EB3-23A8B274EF06}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C448DF20-41B9-4B8C-8178-6F9AB9BF5D5F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD70AB26-930F-4EEC-823A-7BF00E35EF04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7407,7 +7407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB76BD-0DDF-4B27-99BF-CE0CA3E496FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BCA6E-7D1B-4ADB-8160-6B4D9CD13187}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8610,18 +8610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1075E59C-DF76-4498-8356-F4190865B866}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35B2F4B3-2A8D-4163-B8E9-2E71E3BAC984}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8BA70A57-C413-431D-A865-068326C30234}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{411E2785-A7F4-473F-A99A-2C77ED4E62E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{217293F5-B94C-4E5A-8FB1-A2D5AEE6A0AE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50D2ED0A-76F2-44E3-80BD-042B8C2B706C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B84A6F1E-2B8A-4C52-B654-D8DF504B281C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AED89212-01F7-4E81-96CB-68844A0A2205}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C1299CD-F79A-4ECC-AF52-EDF74F7F42A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5110396D-9204-461E-A569-25CB0427A733}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D3E0222-BD23-40DA-94F9-A9A8783E3700}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E32154F-A12C-46E8-8BC6-1BFDD5467B9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2AFD08CA-545E-4E9E-8E9A-1EB7841020AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7E08B2B0-A433-4C74-9949-3339C27B3AEC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDEDCD6F-A910-4AF3-8580-5E7254564C6A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8FB40486-27B5-4FE4-AF5F-D543D52DC227}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77C11C9A-CA3D-42FE-BDA4-FE2B6EDB0282}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3FAACF5D-4497-471B-BD69-A75DD5367701}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{111BEDA8-6EEC-47D7-9F19-BDF76053E460}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26D78526-3698-43F0-85D4-7A3B263BC410}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0784364A-B678-4185-8FAB-B8C2B1D5807E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{82D9CC9F-B33F-4A12-814C-CC801558672D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13F2E07D-71C9-401D-B375-2E522213A2B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BD4349A-BD97-427E-9F1F-DE60E74A4EA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8634,7 +8634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3983B44-185A-4548-B73D-66AD0FAF8DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE9A5EF-5CB6-4A68-B3F1-A931508D15B8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9837,18 +9837,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85D67882-AF09-42D3-8EA6-605858E40A1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5908F2A4-CCB8-4824-B901-F424E00DCE23}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C6411AB-C677-46DB-84C6-DC0D7C58C066}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB3E00A3-0928-4AFC-BDB9-F61A68BD1B81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B1D9FAD-1A3D-4D5F-8FD2-4B9A40513AE6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{29012852-BD73-4965-A505-9E55B01EC45D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67353DD1-73EF-474E-BF5D-F9738BD3474F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F9A789F-F541-4998-9C64-12B999C822F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D73B9FE-899B-4902-A377-8CF529790CE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{394FC2EE-CCE7-4EE0-8D7A-0225D36BB9C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{521DAC23-5A7B-46AA-B127-01ACE66FC7A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B2F3DF3-83AA-4DB3-B7BC-BA8CE104A906}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4CB6321-0D52-4FFF-BDC5-4D21F30F2566}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0434F365-FCD5-4088-BFD4-B007A74545BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B78D906-4BD0-4DAF-8FF9-026BA18ACCF0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9A31F92-C9A5-49FD-BDC4-E5A2129BEDE9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD0E223A-B389-4D01-8BBD-B7E71231F7EA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7E221E9F-5073-4F19-8A74-67EEC1CE9F89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{995BF810-C90E-48D9-BC79-D82CFDADB8D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{03753DDB-4B29-4A35-9B36-A7E9DAF3ECF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D65A78D8-7E3F-4FA0-82E5-481C0179B89A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23EE189F-0490-45F5-BB6E-370CE9318489}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC59742C-16AF-436B-8C87-4DE047E3965B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4D6E3574-5CFD-4A5F-B3DC-787B7F5E3311}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9861,7 +9861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB10B02-2681-4A97-9B27-D85908F1FDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4903BA15-AD10-42F0-97CE-DD1E83362C53}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11065,18 +11065,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33C8E137-F0C6-4D7F-9314-236CF280CD5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5142CBE-4A75-4F8E-B85C-18D9B94ECBCD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{386CA178-76D7-4F63-9478-553B9D848902}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1192BBC-AB5A-4FA7-B947-03D742776FBB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{020EABC1-8F1E-4301-9230-C9CF2D3DDF09}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D74D4377-0C2F-4182-8A4F-CB1E4D669BEE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDA214B9-4BF8-4FD2-945C-966B0398D787}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8DBA744-62A7-4564-AE93-4664A858931E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17401522-A6EF-421B-9F72-E420A52C62B6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C01FDCB6-271F-4A63-A82F-CC40AF88E425}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE8D4A18-9ED5-4556-9367-57CF45C5FAE0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AB04732-E640-43F9-9E86-64E525D0266B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7424D3E-B060-4814-A006-36A9EE0219DC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D6B6B79-E16F-4C9B-A228-5A98625CEEF3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F60B14FD-E035-435A-8FAC-DA1B2E1A4994}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C197DA20-52CD-4F1D-BD3C-4CF05CE198AB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC3B6B10-E9DD-4E33-9849-87B8D8B1B656}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{309F9351-506F-4A6C-91FF-6670A9BB2A33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B5F2A2B-649C-483C-9812-0224AD0D31DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3EA547A4-20E2-4FC3-B32F-3CA4674F73A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D11E1B64-054B-48D5-97F6-F76483F4893C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81381DD6-BDA5-42CC-91EA-F159083EFDFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F2B6BF85-16F7-487C-9E03-7BC80F70472E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8BA961E-1A67-4830-BA9C-EC111EEEA1FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11089,7 +11089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B267CC29-44AF-4574-B8D7-FE8DA53720E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7441CC9C-F5AD-457B-A54E-22572035660A}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12293,18 +12293,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC23938B-82E1-4A24-91EC-D2AD9647170C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC047827-C9F5-4728-8DAD-146AD01FB47A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9582C6E0-FD74-4D5B-BC58-24810F7280D2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B80206BF-D422-481D-BD35-796030A12567}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1220D035-D5F5-46D3-AF02-33EF894A8FA8}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B4E30F0D-CCE7-41B6-B08E-FE40B3EE41E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADDDBCE3-C5CF-4568-8B24-2E7763CD96C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{983C6AC5-970C-4248-9811-E4607C035B83}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A608CFA-0446-45DE-AF0B-D159049047D7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F42EF72-9B78-4CE4-AC87-A0D9C88E8B3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52B964BD-0962-4189-876B-63DBF3D67F02}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B78FBC9-8E10-4A8A-8DEC-3AC3FC27B691}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B11539F9-8BB1-41CE-85D9-00499E6A48F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F589F14B-5230-49A4-87E4-BEA0856B8310}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C1788957-AB94-49BD-A8C7-C23DF1F9B7E1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3B04FB9F-FE4F-4B8B-A78A-568834450547}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9EE4E45-0454-430C-880C-63BB45490C07}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{802927DF-5D10-4A8F-875A-2E82888A6913}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A68B85C8-4B31-4E9A-8DA6-88026C178466}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{154210DC-7E95-4FE8-903A-6B59479CB2D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0BC8216-CF77-4E86-B697-E57C1D2C0CDF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C374141-C1D0-41BD-82E1-9602E575BF7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B06714E-7A73-4A29-ACA3-FFC7BDC44585}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EED7AC78-232A-4843-B289-E0F6F33BB39D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12317,7 +12317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F8B87D-A398-4598-8307-1E7CBC43BB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A716F88D-ACB9-4C89-AF59-1DE6E242E2D6}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13521,18 +13521,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9D70319A-C323-4EF2-BCFE-0086049EF366}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E648BBFA-3623-4EEE-BEE4-1438AE317E00}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87DA748E-7E08-4587-8A69-EEFD2DBEE153}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67E0D4EE-61C9-47AF-B059-73C534D7F77A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5947D4AA-07D2-484A-81B9-AA1C20940AB8}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C44A1197-083D-40AA-9533-30BB20CC1119}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94E7972F-566A-4312-9555-610FBF9AD932}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B77BE9B-D60A-45FC-8FDC-F470C3AE1FBE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{997FC633-0AE5-4A4E-A2F7-9B401F6D2325}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB1B0266-D221-4DAD-B6F2-96CB8834FBCB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15B5CE4F-E65F-4E3E-8CF4-9C810F209882}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{744EEAF4-4D08-442D-B714-7714DE2E4393}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A530CBB-1682-4D39-935B-87B22E917E33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D6E554E-62F8-4C28-AAFC-79ADF043B892}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AB08AA2-F93E-453A-BF85-9B47D21B133C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5A8ED12-C4FB-4E7A-A783-D9539847DD8A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F5E1A59-E7E9-470B-B023-7C3B3C89B176}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D70A2569-ECDB-48EA-A8AA-A55083770179}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54B99C0F-2841-4B37-9665-2A463C87FA04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B1F3A45-620B-4957-B703-8AE55955061B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88C27486-05DD-4021-8260-17412B008DE3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEB00A74-1F3D-44C1-88D4-ECED390EB0B9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35382120-BFD9-4193-9B83-AF6BC63BCDC6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7EBA369-EEF1-4F00-8967-C992188D8BFC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13545,7 +13545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FD2FF8-0E00-468C-9BA3-D0B3246DE0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC1DFBB-4A0C-4188-A599-591CC1D94690}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14745,18 +14745,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0504E858-A9C9-4A14-AFFE-B9A37598E454}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15F3F5B3-02C7-4373-9CF8-330A7D17831E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{538E75EB-98B9-458B-9085-AF3A52F798C5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2B8C920-5C1C-4F48-A518-BCCCC65FDD3A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{575126FF-116F-4DFE-A4EC-9E7DA971F1E2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{695DB6D3-AF5E-45E9-AC07-FE92F776F9EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1277E799-C835-4795-ABA0-2A5285F2C354}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A82D8F6F-F810-4355-9256-CA7F1E6B2D44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61D70CB5-AA94-4BDD-A575-D2361BB5A89B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87E26EC8-B69E-472F-98C2-BB87C61F72C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F32E0D73-62F9-439F-BFC9-0FCD5810AC0E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCECC0C8-D311-4974-B06A-2C5E73251B5F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E86AE89-B791-4884-ACD1-CDFE32F84368}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00DC3883-684E-4B91-8C23-EACD4A589227}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5B1339B-6238-4997-B6C6-402ED3C0E5E1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DB8A838-83F5-4805-B7E5-5D9CFBA4E243}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20B2F310-2999-423A-8090-63C2354ABB3A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35989FD8-4C40-4820-8A8C-471F40AB898E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14BC38E8-644E-434D-9F76-951094D84BF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{647BF718-0DEF-4F87-9833-6001441E9139}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DED09353-7406-4892-A958-F7B38BFDDA8A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{904689D1-2DE9-4CD0-880D-1D6FB5CC0E2D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{853A72C7-3C28-42C9-86BF-38F6685D7F8F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E7392CC2-10D3-4102-8A59-563537AA798F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14769,7 +14769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A93DE-77A7-474C-8466-6199D00E759D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5834B907-D439-40ED-9A9B-8CBF8C01D611}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15965,18 +15965,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95893E59-C4C4-484A-86AB-BCF275A10C05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{721E0DC7-EA68-4899-9194-D10F8C1F6004}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0AAC022-7516-4ECC-A39E-7121A901F13C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B7528ACA-C2CF-4059-8BBF-DDC45C5C415B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FA3BA46-8245-415B-869E-7EB9AACE7430}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{89BA14CE-E974-41D8-A402-E53AFF43C8BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52D59F7F-3CD7-452C-B2F5-6B6E7B7658BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B11F62F7-7E99-4F78-9EE8-33147F7EF1DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24CD2FE7-9037-46DC-8F8C-861D0764DD1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32E907A8-2E06-4E55-96D8-AF9715E7E0D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7C62363-044C-47E1-AFD6-E040C15F3EA8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D3EDF32-6080-4C24-88F1-0765781561A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32599741-0FBA-410B-B3E4-B71099444E8D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67FBCE27-3B46-4333-957D-27AF1FBDD7A1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96E93A1C-B4D4-406E-91E9-064C5B41FAE0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42642B2D-8FBB-4EDF-9B41-D7EF26A6E54C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60E9F34B-4166-461D-B7BD-46534A13E456}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C47DF9D-1B9D-4FDE-B34E-4C64B7BBEE2F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{164EBA52-B55E-4743-9ED5-DA62959B76C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E16A350-E1AD-4CDD-BA64-1189D9F4F8FD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93C1D089-EEE5-40A0-9DC2-A31DDB58120A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8DB12974-1D05-48CC-B175-2B906E48A218}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDFDFE82-798B-44FC-9935-27D8D2542A6B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9631B7D0-5362-496E-B77A-F717C02938A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
